--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.92253821086016</v>
+        <v>66.3371119239919</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.51568390833638</v>
+        <v>90.76536312120135</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.21313442657907</v>
+        <v>82.10284425492313</v>
       </c>
       <c r="AD2" t="n">
-        <v>55922.53821086016</v>
+        <v>66337.11192399189</v>
       </c>
       <c r="AE2" t="n">
-        <v>76515.68390833639</v>
+        <v>90765.36312120134</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.297165502418422e-06</v>
+        <v>1.064567072326816e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.217592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>69213.13442657907</v>
+        <v>82102.84425492313</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.5978137232314</v>
+        <v>64.68847107564244</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.70313742164392</v>
+        <v>88.50961997958977</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.57357483265099</v>
+        <v>80.06238607279086</v>
       </c>
       <c r="AD2" t="n">
-        <v>54597.8137232314</v>
+        <v>64688.47107564245</v>
       </c>
       <c r="AE2" t="n">
-        <v>74703.13742164391</v>
+        <v>88509.61997958977</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.359925046468735e-06</v>
+        <v>1.101406100374106e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.294753086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>67573.57483265099</v>
+        <v>80062.38607279086</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.1451177229755</v>
+        <v>81.2905976023854</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.39793583452739</v>
+        <v>111.2253819275979</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.15223809876524</v>
+        <v>100.6101875822604</v>
       </c>
       <c r="AD2" t="n">
-        <v>63145.1177229755</v>
+        <v>81290.5976023854</v>
       </c>
       <c r="AE2" t="n">
-        <v>86397.93583452739</v>
+        <v>111225.3819275978</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.744352869090694e-06</v>
+        <v>1.086955175400246e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.070216049382717</v>
       </c>
       <c r="AH2" t="n">
-        <v>78152.23809876524</v>
+        <v>100610.1875822604</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.35667942384924</v>
+        <v>72.34994098179392</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.00496271824923</v>
+        <v>98.99238110537836</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.03747153954458</v>
+        <v>89.54468718938516</v>
       </c>
       <c r="AD2" t="n">
-        <v>53356.67942384924</v>
+        <v>72349.94098179392</v>
       </c>
       <c r="AE2" t="n">
-        <v>73004.96271824923</v>
+        <v>98992.38110537836</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.16623247851036e-06</v>
+        <v>1.123353642566347e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.630401234567902</v>
       </c>
       <c r="AH2" t="n">
-        <v>66037.47153954458</v>
+        <v>89544.68718938516</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.11462886262328</v>
+        <v>91.43723790925326</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.09270786449133</v>
+        <v>125.1084628336251</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.58982486832657</v>
+        <v>113.1682867316473</v>
       </c>
       <c r="AD2" t="n">
-        <v>65114.62886262328</v>
+        <v>91437.23790925325</v>
       </c>
       <c r="AE2" t="n">
-        <v>89092.70786449133</v>
+        <v>125108.4628336251</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.146026966201552e-06</v>
+        <v>1.008455480145989e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>80589.82486832657</v>
+        <v>113168.2867316473</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.63370259231665</v>
+        <v>64.80949859088363</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.75224215563148</v>
+        <v>88.67521516529982</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.61799307974572</v>
+        <v>80.21217708639109</v>
       </c>
       <c r="AD2" t="n">
-        <v>54633.70259231665</v>
+        <v>64809.49859088364</v>
       </c>
       <c r="AE2" t="n">
-        <v>74752.24215563148</v>
+        <v>88675.21516529981</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.409938891690638e-06</v>
+        <v>1.102817940302662e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.240740740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>67617.99307974572</v>
+        <v>80212.17708639109</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.40610616619635</v>
+        <v>102.0879404143676</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.5422052560536</v>
+        <v>139.6812238769476</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.56484391234881</v>
+        <v>126.3502439139983</v>
       </c>
       <c r="AD2" t="n">
-        <v>76406.10616619635</v>
+        <v>102087.9404143676</v>
       </c>
       <c r="AE2" t="n">
-        <v>104542.2052560536</v>
+        <v>139681.2238769476</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.671484944653387e-06</v>
+        <v>9.36474076845873e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.320216049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>94564.84391234881</v>
+        <v>126350.2439139983</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.58105424059714</v>
+        <v>73.03896552863458</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.31196224124186</v>
+        <v>99.93513488798294</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.31517145893943</v>
+        <v>90.39746587414149</v>
       </c>
       <c r="AD2" t="n">
-        <v>53581.05424059714</v>
+        <v>73038.96552863458</v>
       </c>
       <c r="AE2" t="n">
-        <v>73311.96224124185</v>
+        <v>99935.13488798295</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.372617916894731e-06</v>
+        <v>1.128637986030204e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.387345679012346</v>
       </c>
       <c r="AH2" t="n">
-        <v>66315.17145893943</v>
+        <v>90397.46587414149</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.102599611256</v>
+        <v>73.93639079831479</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.02556362633479</v>
+        <v>101.1630317335675</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.96066772938515</v>
+        <v>91.50817396814786</v>
       </c>
       <c r="AD2" t="n">
-        <v>54102.599611256</v>
+        <v>73936.39079831479</v>
       </c>
       <c r="AE2" t="n">
-        <v>74025.56362633478</v>
+        <v>101163.0317335675</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.402838460028901e-06</v>
+        <v>1.116599118353044e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.306327160493828</v>
       </c>
       <c r="AH2" t="n">
-        <v>66960.66772938515</v>
+        <v>91508.17396814786</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.51219438357506</v>
+        <v>65.84970921597531</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.95423338075318</v>
+        <v>90.09847723340351</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.70526794934747</v>
+        <v>81.49960502027629</v>
       </c>
       <c r="AD2" t="n">
-        <v>55512.19438357506</v>
+        <v>65849.70921597531</v>
       </c>
       <c r="AE2" t="n">
-        <v>75954.23338075318</v>
+        <v>90098.47723340351</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.337817573636851e-06</v>
+        <v>1.07738698275846e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.221450617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>68705.26794934747</v>
+        <v>81499.60502027629</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.38946399736734</v>
+        <v>72.60575671967506</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.04982001808996</v>
+        <v>99.34239948374099</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.07804772164614</v>
+        <v>89.86130030497087</v>
       </c>
       <c r="AD2" t="n">
-        <v>53389.46399736733</v>
+        <v>72605.75671967506</v>
       </c>
       <c r="AE2" t="n">
-        <v>73049.82001808996</v>
+        <v>99342.39948374098</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.250220375136935e-06</v>
+        <v>1.127062638816188e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.533950617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>66078.04772164614</v>
+        <v>89861.30030497086</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.6146042698926</v>
+        <v>72.11804526884484</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.3578668714467</v>
+        <v>98.67509116040476</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.35669501566508</v>
+        <v>89.25767895144051</v>
       </c>
       <c r="AD2" t="n">
-        <v>53614.6042698926</v>
+        <v>72118.04526884484</v>
       </c>
       <c r="AE2" t="n">
-        <v>73357.86687144671</v>
+        <v>98675.09116040476</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.916111468116931e-06</v>
+        <v>1.103757295743886e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>66356.69501566509</v>
+        <v>89257.67895144051</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.83303853035322</v>
+        <v>81.6814324773178</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.33917943210521</v>
+        <v>111.7601394458978</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.00365072843424</v>
+        <v>101.0939085935509</v>
       </c>
       <c r="AD2" t="n">
-        <v>63833.03853035322</v>
+        <v>81681.43247731779</v>
       </c>
       <c r="AE2" t="n">
-        <v>87339.17943210521</v>
+        <v>111760.1394458978</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.485166034505774e-06</v>
+        <v>1.05481776941003e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>79003.65072843424</v>
+        <v>101093.9085935509</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.75801598108694</v>
+        <v>114.8789648853739</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.8108773094661</v>
+        <v>157.182467858343</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.0899795452317</v>
+        <v>142.1811937329651</v>
       </c>
       <c r="AD2" t="n">
-        <v>89758.01598108694</v>
+        <v>114878.9648853739</v>
       </c>
       <c r="AE2" t="n">
-        <v>122810.8773094661</v>
+        <v>157182.467858343</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.009642751483909e-06</v>
+        <v>8.270286418117749e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.373456790123457</v>
       </c>
       <c r="AH2" t="n">
-        <v>111089.9795452317</v>
+        <v>142181.1937329651</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.97933293975648</v>
+        <v>73.6291926795388</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.85690472824751</v>
+        <v>100.7427097148338</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.80810539981702</v>
+        <v>91.12796689295638</v>
       </c>
       <c r="AD2" t="n">
-        <v>53979.33293975648</v>
+        <v>73629.1926795388</v>
       </c>
       <c r="AE2" t="n">
-        <v>73856.90472824751</v>
+        <v>100742.7097148338</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.357078858262487e-06</v>
+        <v>1.116913678134611e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.36033950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>66808.10539981702</v>
+        <v>91127.96689295638</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.28554156894926</v>
+        <v>65.54353784991574</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.64411700056587</v>
+        <v>89.67956006303362</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.42474864123406</v>
+        <v>81.12066871669242</v>
       </c>
       <c r="AD2" t="n">
-        <v>55285.54156894927</v>
+        <v>65543.53784991574</v>
       </c>
       <c r="AE2" t="n">
-        <v>75644.11700056586</v>
+        <v>89679.56006303363</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.330750387328666e-06</v>
+        <v>1.08248776483434e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.252314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>68424.74864123407</v>
+        <v>81120.66871669242</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.4308388933934</v>
+        <v>158.0351403725574</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.6740544568491</v>
+        <v>216.2306510759688</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.3395482069835</v>
+        <v>195.5939012189651</v>
       </c>
       <c r="AD2" t="n">
-        <v>117430.8388933934</v>
+        <v>158035.1403725574</v>
       </c>
       <c r="AE2" t="n">
-        <v>160674.0544568491</v>
+        <v>216230.6510759688</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.054512258354413e-06</v>
+        <v>6.547226648863994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.661265432098766</v>
       </c>
       <c r="AH2" t="n">
-        <v>145339.5482069835</v>
+        <v>195593.9012189651</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.42182271379308</v>
+        <v>72.17831066395162</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.09409464146945</v>
+        <v>98.75754893271139</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.11809683711014</v>
+        <v>89.33226706968844</v>
       </c>
       <c r="AD2" t="n">
-        <v>53421.82271379308</v>
+        <v>72178.31066395162</v>
       </c>
       <c r="AE2" t="n">
-        <v>73094.09464146945</v>
+        <v>98757.54893271139</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.055566047377287e-06</v>
+        <v>1.115697190415921e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.746141975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>66118.09683711015</v>
+        <v>89332.26706968845</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.42343954014346</v>
+        <v>72.68037582135575</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.09630685461141</v>
+        <v>99.44449663062291</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.12009791973468</v>
+        <v>89.95365344344863</v>
       </c>
       <c r="AD2" t="n">
-        <v>53423.43954014346</v>
+        <v>72680.37582135576</v>
       </c>
       <c r="AE2" t="n">
-        <v>73096.30685461141</v>
+        <v>99444.4966306229</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.324614477734119e-06</v>
+        <v>1.129846220498212e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.452932098765432</v>
       </c>
       <c r="AH2" t="n">
-        <v>66120.09791973468</v>
+        <v>89953.65344344862</v>
       </c>
     </row>
   </sheetData>
